--- a/4_significance/significance analysis for RQ1 RQ2 RQ3.xlsx
+++ b/4_significance/significance analysis for RQ1 RQ2 RQ3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>SVM</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>p-value of feature set hop_four and baselines</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>hop_one &amp; hop_two</t>
   </si>
   <si>
@@ -91,7 +87,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bs_pscout &amp; hop_four</t>
+    <t>p-value of feature set hop_four and baseline</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,6 +201,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -511,7 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -526,7 +523,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -542,13 +539,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -650,7 +647,7 @@
   <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -663,7 +660,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -685,16 +682,16 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -813,14 +810,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.125" style="1" bestFit="1" customWidth="1"/>
@@ -831,10 +828,10 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="6"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -843,10 +840,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -855,10 +852,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -868,9 +862,7 @@
       <c r="B5" s="2">
         <v>6.345369E-3</v>
       </c>
-      <c r="C5" s="2">
-        <v>7.6799999999999999E-7</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="I5" s="2"/>
@@ -883,9 +875,6 @@
       <c r="B6" s="2">
         <v>7.7428080000000003E-3</v>
       </c>
-      <c r="C6" s="1">
-        <v>8.3200000000000004E-7</v>
-      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -898,9 +887,6 @@
       <c r="B7" s="1">
         <v>5.8225480000000003E-3</v>
       </c>
-      <c r="C7" s="1">
-        <v>2.2670000000000001E-6</v>
-      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
@@ -911,9 +897,6 @@
       <c r="B8" s="1">
         <v>1.8343999999999999E-5</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
@@ -924,9 +907,6 @@
       <c r="B9" s="1">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
@@ -937,15 +917,12 @@
       <c r="B10" s="1">
         <v>0.47974880199999997</v>
       </c>
-      <c r="C10" s="1">
-        <v>9.3947500000000005E-4</v>
-      </c>
       <c r="F10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
